--- a/biology/Médecine/Omalizumab/Omalizumab.xlsx
+++ b/biology/Médecine/Omalizumab/Omalizumab.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'omalizumab est un anticorps monoclonal recombinant ciblé sur l'immunoglobuline E, développé comme médicament dans les états allergiques, dont l'asthme.
@@ -512,10 +524,12 @@
           <t>Mode d'action</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'immunoglobuline E intervient dans les phénomènes allergiques.
-L'omalizumab réduit le taux d'immunoglobuline E ainsi que la sensibilité du récepteur à cet immunoglobuline (FcεRI)[1]. Il est surtout efficace sur la phase tardive de la réaction allergique lors de tests cutanés[2].
+L'omalizumab réduit le taux d'immunoglobuline E ainsi que la sensibilité du récepteur à cet immunoglobuline (FcεRI). Il est surtout efficace sur la phase tardive de la réaction allergique lors de tests cutanés.
 </t>
         </is>
       </c>
@@ -544,11 +558,13 @@
           <t>Efficacité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il améliore les symptômes de l'asthme[3], indication pour laquelle son utilisation est retenue.
-En combinaison avec une immunothérapie, il est efficace dans la réduction des symptômes d'une rhinite allergique saisonnière[4].
-Il améliore les symptômes de l'urticaire chronique résistant aux anti-histaminiques[5], indication pour laquelle il reçoit l'accord de l'Agence européenne des médicaments[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il améliore les symptômes de l'asthme, indication pour laquelle son utilisation est retenue.
+En combinaison avec une immunothérapie, il est efficace dans la réduction des symptômes d'une rhinite allergique saisonnière.
+Il améliore les symptômes de l'urticaire chronique résistant aux anti-histaminiques, indication pour laquelle il reçoit l'accord de l'Agence européenne des médicaments.
 </t>
         </is>
       </c>
@@ -577,9 +593,11 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le médicament est bien toléré sur plusieurs années[7]. Un risque accru de cancer a été suspecté sur les premières études mais n'a pas été ensuite retrouvé[8].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le médicament est bien toléré sur plusieurs années. Un risque accru de cancer a été suspecté sur les premières études mais n'a pas été ensuite retrouvé.
 </t>
         </is>
       </c>
